--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1224">
   <si>
     <t>Aperture Basic Info</t>
   </si>
@@ -416,10 +416,10 @@
     <t>0.07005886361899759</t>
   </si>
   <si>
-    <t>207.19</t>
-  </si>
-  <si>
-    <t>-697.5</t>
+    <t>206.441</t>
+  </si>
+  <si>
+    <t>-698.069</t>
   </si>
   <si>
     <t>-1.2508171328901623</t>
@@ -833,7 +833,10 @@
     <t>0.06982049767478168</t>
   </si>
   <si>
-    <t>24.43</t>
+    <t>22.818</t>
+  </si>
+  <si>
+    <t>-699.591</t>
   </si>
   <si>
     <t>0.19027904463505274</t>
@@ -1145,10 +1148,10 @@
     <t>0.06826328566738032</t>
   </si>
   <si>
-    <t>140.97220831759697</t>
-  </si>
-  <si>
-    <t>-631.0341421040232</t>
+    <t>140.22320831759697</t>
+  </si>
+  <si>
+    <t>-631.6031421040232</t>
   </si>
   <si>
     <t>-90.11986052827177</t>
@@ -1301,10 +1304,10 @@
     <t>0.0690519661730757</t>
   </si>
   <si>
-    <t>173.84654992847953</t>
-  </si>
-  <si>
-    <t>-663.9749857996336</t>
+    <t>173.09754992847954</t>
+  </si>
+  <si>
+    <t>-664.5439857996336</t>
   </si>
   <si>
     <t>-89.88292140149322</t>
@@ -1658,10 +1661,10 @@
     <t>0.07243013316055126</t>
   </si>
   <si>
-    <t>-42.23931407447644</t>
-  </si>
-  <si>
-    <t>-766.973079311507</t>
+    <t>-43.85131407447644</t>
+  </si>
+  <si>
+    <t>-769.0640793115072</t>
   </si>
   <si>
     <t>-91.55024882984965</t>
@@ -1811,10 +1814,10 @@
     <t>0.07098031503333774</t>
   </si>
   <si>
-    <t>-8.583802478181786</t>
-  </si>
-  <si>
-    <t>-731.8079381342563</t>
+    <t>-10.195802478181784</t>
+  </si>
+  <si>
+    <t>-733.8989381342564</t>
   </si>
   <si>
     <t>-91.10127545516434</t>
@@ -2165,10 +2168,10 @@
     <t>0.07012186595013008</t>
   </si>
   <si>
-    <t>208.02366130057243</t>
-  </si>
-  <si>
-    <t>-699.5732770413226</t>
+    <t>207.27466130057243</t>
+  </si>
+  <si>
+    <t>-700.1422770413226</t>
   </si>
   <si>
     <t>-71.03733744343728</t>
@@ -2324,10 +2327,10 @@
     <t>0.07193042652028452</t>
   </si>
   <si>
-    <t>145.08050295264775</t>
-  </si>
-  <si>
-    <t>-762.6315356668123</t>
+    <t>144.33150295264775</t>
+  </si>
+  <si>
+    <t>-763.2005356668122</t>
   </si>
   <si>
     <t>-135.34200519876435</t>
@@ -2483,10 +2486,10 @@
     <t>0.07173234893063828</t>
   </si>
   <si>
-    <t>260.70630166328476</t>
-  </si>
-  <si>
-    <t>-738.8602610098595</t>
+    <t>259.95730166328474</t>
+  </si>
+  <si>
+    <t>-739.4292610098595</t>
   </si>
   <si>
     <t>-19.224851721071236</t>
@@ -2642,10 +2645,10 @@
     <t>0.06894015219133763</t>
   </si>
   <si>
-    <t>269.99344287044806</t>
-  </si>
-  <si>
-    <t>-633.1480008127497</t>
+    <t>269.24444287044804</t>
+  </si>
+  <si>
+    <t>-633.7170008127497</t>
   </si>
   <si>
     <t>-7.632315416168646</t>
@@ -2795,10 +2798,10 @@
     <t>0.06832148202910197</t>
   </si>
   <si>
-    <t>142.7212760030966</t>
-  </si>
-  <si>
-    <t>-633.8646991945218</t>
+    <t>141.9722760030966</t>
+  </si>
+  <si>
+    <t>-634.4336991945218</t>
   </si>
   <si>
     <t>-134.88980025659524</t>
@@ -2951,10 +2954,10 @@
     <t>0.06980318033342428</t>
   </si>
   <si>
-    <t>25.34954844098112</t>
-  </si>
-  <si>
-    <t>-696.9643444181352</t>
+    <t>23.737548440981122</t>
+  </si>
+  <si>
+    <t>-699.0553444181352</t>
   </si>
   <si>
     <t>-69.20535467436002</t>
@@ -3107,10 +3110,10 @@
     <t>0.07147198586306203</t>
   </si>
   <si>
-    <t>-23.695612507901444</t>
-  </si>
-  <si>
-    <t>-744.0470353045871</t>
+    <t>-25.307612507901442</t>
+  </si>
+  <si>
+    <t>-746.1380353045871</t>
   </si>
   <si>
     <t>-118.093884031113</t>
@@ -3254,10 +3257,10 @@
     <t>0.07183087842299725</t>
   </si>
   <si>
-    <t>87.39558619356544</t>
-  </si>
-  <si>
-    <t>-762.2706144481065</t>
+    <t>85.78358619356544</t>
+  </si>
+  <si>
+    <t>-764.3616144481065</t>
   </si>
   <si>
     <t>-6.942777623204338</t>
@@ -3401,10 +3404,10 @@
     <t>0.0682484055679046</t>
   </si>
   <si>
-    <t>86.7203366991081</t>
-  </si>
-  <si>
-    <t>-633.2339698623605</t>
+    <t>85.1083366991081</t>
+  </si>
+  <si>
+    <t>-635.3249698623604</t>
   </si>
   <si>
     <t>-8.046552764412846</t>
@@ -3548,10 +3551,10 @@
     <t>0.068596053603498</t>
   </si>
   <si>
-    <t>-38.12312714095401</t>
-  </si>
-  <si>
-    <t>-634.5628148228857</t>
+    <t>-39.735127140954006</t>
+  </si>
+  <si>
+    <t>-636.6538148228858</t>
   </si>
   <si>
     <t>-132.88491507454154</t>
@@ -5417,10 +5420,10 @@
         <v>272</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>136</v>
@@ -5432,34 +5435,34 @@
         <v>136</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>148</v>
@@ -5474,46 +5477,46 @@
         <v>151</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AX5" s="3" t="s">
         <v>149</v>
@@ -5537,46 +5540,46 @@
         <v>151</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BF5" s="3" t="s">
         <v>271</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BJ5" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BM5" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO5" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ5" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BR5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS5" s="3" t="s">
         <v>149</v>
@@ -5600,46 +5603,46 @@
         <v>151</v>
       </c>
       <c r="BZ5" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CE5" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CH5" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CI5" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CL5" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CN5" s="3" t="s">
         <v>149</v>
@@ -5663,46 +5666,46 @@
         <v>151</v>
       </c>
       <c r="CU5" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="CV5" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW5" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CX5" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="CY5" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CZ5" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DB5" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DC5" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DD5" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE5" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG5" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="DH5" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI5" s="3" t="s">
         <v>149</v>
@@ -5728,7 +5731,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
         <v>269</v>
@@ -5773,10 +5776,10 @@
         <v>272</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>211</v>
@@ -5788,34 +5791,34 @@
         <v>211</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="AD6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>148</v>
@@ -5830,46 +5833,46 @@
         <v>151</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX6" s="3" t="s">
         <v>149</v>
@@ -5893,46 +5896,46 @@
         <v>151</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BF6" s="3" t="s">
         <v>271</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS6" s="3" t="s">
         <v>149</v>
@@ -5956,46 +5959,46 @@
         <v>151</v>
       </c>
       <c r="BZ6" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL6" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN6" s="3" t="s">
         <v>149</v>
@@ -6019,46 +6022,46 @@
         <v>151</v>
       </c>
       <c r="CU6" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CV6" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CX6" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CY6" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CZ6" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DB6" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="DC6" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DD6" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE6" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF6" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG6" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI6" s="3" t="s">
         <v>149</v>
@@ -6084,13 +6087,13 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
         <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
         <v>128</v>
@@ -6102,34 +6105,34 @@
         <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>210</v>
@@ -6144,34 +6147,34 @@
         <v>136</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>148</v>
@@ -6186,31 +6189,31 @@
         <v>151</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>227</v>
@@ -6249,31 +6252,31 @@
         <v>151</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BN7" s="3" t="s">
         <v>239</v>
@@ -6312,31 +6315,31 @@
         <v>151</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CE7" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG7" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="CI7" s="3" t="s">
         <v>249</v>
@@ -6375,31 +6378,31 @@
         <v>151</v>
       </c>
       <c r="CU7" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CV7" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CW7" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="CY7" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="CZ7" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DB7" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DC7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DD7" s="3" t="s">
         <v>263</v>
@@ -6440,13 +6443,13 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
         <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
         <v>128</v>
@@ -6458,34 +6461,34 @@
         <v>129</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>210</v>
@@ -6500,34 +6503,34 @@
         <v>136</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>148</v>
@@ -6542,31 +6545,31 @@
         <v>151</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>227</v>
@@ -6605,31 +6608,31 @@
         <v>151</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BF8" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BN8" s="3" t="s">
         <v>239</v>
@@ -6668,31 +6671,31 @@
         <v>151</v>
       </c>
       <c r="BZ8" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CB8" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="CE8" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CI8" s="3" t="s">
         <v>249</v>
@@ -6731,31 +6734,31 @@
         <v>151</v>
       </c>
       <c r="CU8" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CV8" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CW8" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CX8" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CY8" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CZ8" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DB8" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="DC8" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DD8" s="3" t="s">
         <v>263</v>
@@ -6796,13 +6799,13 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
         <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
         <v>128</v>
@@ -6820,16 +6823,16 @@
         <v>130</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>131</v>
@@ -6856,34 +6859,34 @@
         <v>136</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>210</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>148</v>
@@ -7152,13 +7155,13 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
         <v>128</v>
@@ -7170,34 +7173,34 @@
         <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>210</v>
@@ -7212,34 +7215,34 @@
         <v>136</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>148</v>
@@ -7254,31 +7257,31 @@
         <v>151</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>227</v>
@@ -7317,31 +7320,31 @@
         <v>151</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BF10" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BK10" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BN10" s="3" t="s">
         <v>239</v>
@@ -7380,31 +7383,31 @@
         <v>151</v>
       </c>
       <c r="BZ10" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CC10" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CE10" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="CI10" s="3" t="s">
         <v>249</v>
@@ -7443,31 +7446,31 @@
         <v>151</v>
       </c>
       <c r="CU10" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CV10" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CW10" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="CX10" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="CY10" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="CZ10" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DB10" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DC10" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DD10" s="3" t="s">
         <v>263</v>
@@ -7508,13 +7511,13 @@
         <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E11" t="s">
         <v>128</v>
@@ -7526,34 +7529,34 @@
         <v>129</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>210</v>
@@ -7568,34 +7571,34 @@
         <v>136</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>148</v>
@@ -7610,31 +7613,31 @@
         <v>151</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AS11" s="3" t="s">
         <v>227</v>
@@ -7673,31 +7676,31 @@
         <v>151</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BF11" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BG11" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="BK11" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BN11" s="3" t="s">
         <v>239</v>
@@ -7736,31 +7739,31 @@
         <v>151</v>
       </c>
       <c r="BZ11" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CB11" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="CC11" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="CE11" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CH11" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CI11" s="3" t="s">
         <v>249</v>
@@ -7799,31 +7802,31 @@
         <v>151</v>
       </c>
       <c r="CU11" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CV11" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CW11" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CX11" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CY11" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CZ11" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DB11" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="DC11" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DD11" s="3" t="s">
         <v>263</v>
@@ -7864,13 +7867,13 @@
         <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -7888,16 +7891,16 @@
         <v>130</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>131</v>
@@ -7924,34 +7927,34 @@
         <v>136</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>210</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>148</v>
@@ -8220,13 +8223,13 @@
         <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
         <v>128</v>
@@ -8238,34 +8241,34 @@
         <v>129</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>210</v>
@@ -8280,34 +8283,34 @@
         <v>136</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>148</v>
@@ -8322,31 +8325,31 @@
         <v>151</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS13" s="3" t="s">
         <v>227</v>
@@ -8385,31 +8388,31 @@
         <v>151</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BL13" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BN13" s="3" t="s">
         <v>239</v>
@@ -8448,31 +8451,31 @@
         <v>151</v>
       </c>
       <c r="BZ13" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CA13" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CB13" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CC13" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="CD13" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CE13" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CF13" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG13" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="CH13" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="CI13" s="3" t="s">
         <v>249</v>
@@ -8511,31 +8514,31 @@
         <v>151</v>
       </c>
       <c r="CU13" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CV13" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CW13" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="CX13" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="CY13" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="CZ13" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DA13" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DB13" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DC13" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DD13" s="3" t="s">
         <v>263</v>
@@ -8576,13 +8579,13 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
         <v>128</v>
@@ -8594,34 +8597,34 @@
         <v>129</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>210</v>
@@ -8636,34 +8639,34 @@
         <v>136</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>148</v>
@@ -8678,31 +8681,31 @@
         <v>151</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>227</v>
@@ -8741,31 +8744,31 @@
         <v>151</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BJ14" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BN14" s="3" t="s">
         <v>239</v>
@@ -8804,31 +8807,31 @@
         <v>151</v>
       </c>
       <c r="BZ14" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CA14" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CB14" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="CC14" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="CD14" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="CE14" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CF14" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="CG14" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CH14" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CI14" s="3" t="s">
         <v>249</v>
@@ -8867,31 +8870,31 @@
         <v>151</v>
       </c>
       <c r="CU14" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CV14" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CW14" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CX14" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CY14" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CZ14" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DA14" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DB14" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="DC14" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DD14" s="3" t="s">
         <v>263</v>
@@ -8932,13 +8935,13 @@
         <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E15" t="s">
         <v>128</v>
@@ -8956,16 +8959,16 @@
         <v>130</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>131</v>
@@ -8992,34 +8995,34 @@
         <v>136</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>210</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>148</v>
@@ -9288,13 +9291,13 @@
         <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
         <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E16" t="s">
         <v>128</v>
@@ -9306,37 +9309,37 @@
         <v>129</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>211</v>
@@ -9348,34 +9351,34 @@
         <v>211</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>148</v>
@@ -9390,46 +9393,46 @@
         <v>151</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW16" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX16" s="3" t="s">
         <v>149</v>
@@ -9453,46 +9456,46 @@
         <v>151</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="BF16" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BI16" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BJ16" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="BK16" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL16" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP16" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ16" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR16" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS16" s="3" t="s">
         <v>149</v>
@@ -9516,46 +9519,46 @@
         <v>151</v>
       </c>
       <c r="BZ16" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CA16" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CB16" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CC16" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CE16" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CF16" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CG16" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CH16" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CI16" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ16" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK16" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL16" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM16" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN16" s="3" t="s">
         <v>149</v>
@@ -9579,46 +9582,46 @@
         <v>151</v>
       </c>
       <c r="CU16" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CV16" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CW16" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CX16" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CY16" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CZ16" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="DA16" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="DB16" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="DC16" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="DD16" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE16" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF16" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG16" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH16" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI16" s="3" t="s">
         <v>149</v>
@@ -9644,13 +9647,13 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
         <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E17" t="s">
         <v>128</v>
@@ -9662,37 +9665,37 @@
         <v>129</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="N17" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>211</v>
@@ -9704,34 +9707,34 @@
         <v>211</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>148</v>
@@ -9746,46 +9749,46 @@
         <v>151</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX17" s="3" t="s">
         <v>149</v>
@@ -9809,46 +9812,46 @@
         <v>151</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="BI17" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="BJ17" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BK17" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BL17" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="BM17" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="BN17" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO17" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP17" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR17" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS17" s="3" t="s">
         <v>149</v>
@@ -9872,46 +9875,46 @@
         <v>151</v>
       </c>
       <c r="BZ17" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="CB17" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CC17" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="CE17" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="CF17" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="CG17" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="CH17" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="CI17" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ17" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK17" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL17" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM17" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN17" s="3" t="s">
         <v>149</v>
@@ -9935,46 +9938,46 @@
         <v>151</v>
       </c>
       <c r="CU17" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="CV17" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="CW17" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="CX17" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="CY17" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="CZ17" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DA17" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DB17" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DC17" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DD17" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE17" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF17" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG17" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH17" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI17" s="3" t="s">
         <v>149</v>
@@ -10000,13 +10003,13 @@
         <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C18" t="s">
         <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -10024,16 +10027,16 @@
         <v>130</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>270</v>
@@ -10045,10 +10048,10 @@
         <v>272</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>211</v>
@@ -10060,34 +10063,34 @@
         <v>211</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>148</v>
@@ -10102,46 +10105,46 @@
         <v>151</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK18" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX18" s="3" t="s">
         <v>149</v>
@@ -10165,46 +10168,46 @@
         <v>151</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BF18" s="3" t="s">
         <v>271</v>
       </c>
       <c r="BG18" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BJ18" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BK18" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL18" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BM18" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BN18" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP18" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR18" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS18" s="3" t="s">
         <v>149</v>
@@ -10228,46 +10231,46 @@
         <v>151</v>
       </c>
       <c r="BZ18" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB18" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CC18" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CE18" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CF18" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CG18" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CH18" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CI18" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ18" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK18" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL18" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM18" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN18" s="3" t="s">
         <v>149</v>
@@ -10291,46 +10294,46 @@
         <v>151</v>
       </c>
       <c r="CU18" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CV18" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW18" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CX18" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CY18" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CZ18" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="DA18" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DB18" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="DC18" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DD18" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE18" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF18" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG18" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH18" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI18" s="3" t="s">
         <v>149</v>
@@ -10356,13 +10359,13 @@
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C19" t="s">
         <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
         <v>128</v>
@@ -10374,37 +10377,37 @@
         <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>211</v>
@@ -10416,34 +10419,34 @@
         <v>211</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AF19" s="3" t="s">
         <v>148</v>
@@ -10458,46 +10461,46 @@
         <v>151</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AQ19" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW19" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX19" s="3" t="s">
         <v>149</v>
@@ -10521,46 +10524,46 @@
         <v>151</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="BF19" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BG19" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BH19" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BJ19" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="BK19" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL19" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="BM19" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BN19" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO19" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP19" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR19" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS19" s="3" t="s">
         <v>149</v>
@@ -10584,46 +10587,46 @@
         <v>151</v>
       </c>
       <c r="BZ19" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CB19" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CC19" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CE19" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CF19" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CG19" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CH19" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CI19" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ19" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK19" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL19" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM19" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN19" s="3" t="s">
         <v>149</v>
@@ -10647,46 +10650,46 @@
         <v>151</v>
       </c>
       <c r="CU19" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CV19" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CW19" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CX19" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CY19" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CZ19" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="DA19" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="DB19" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="DC19" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="DD19" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE19" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF19" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG19" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH19" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI19" s="3" t="s">
         <v>149</v>
@@ -10712,13 +10715,13 @@
         <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>
@@ -10730,37 +10733,37 @@
         <v>129</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>211</v>
@@ -10772,34 +10775,34 @@
         <v>211</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>148</v>
@@ -10814,46 +10817,46 @@
         <v>151</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV20" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW20" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX20" s="3" t="s">
         <v>149</v>
@@ -10877,46 +10880,46 @@
         <v>151</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="BF20" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="BH20" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="BJ20" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BK20" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BL20" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="BM20" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="BN20" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP20" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ20" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR20" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS20" s="3" t="s">
         <v>149</v>
@@ -10940,46 +10943,46 @@
         <v>151</v>
       </c>
       <c r="BZ20" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="CB20" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CC20" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="CF20" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="CG20" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="CH20" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="CI20" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ20" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK20" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL20" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM20" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN20" s="3" t="s">
         <v>149</v>
@@ -11003,46 +11006,46 @@
         <v>151</v>
       </c>
       <c r="CU20" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="CV20" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="CW20" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="CX20" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="CY20" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="CZ20" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DA20" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DB20" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DC20" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DD20" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE20" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF20" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG20" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH20" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI20" s="3" t="s">
         <v>149</v>
@@ -11068,13 +11071,13 @@
         <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C21" t="s">
         <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E21" t="s">
         <v>128</v>
@@ -11092,16 +11095,16 @@
         <v>130</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>270</v>
@@ -11113,10 +11116,10 @@
         <v>272</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>211</v>
@@ -11128,34 +11131,34 @@
         <v>211</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>148</v>
@@ -11170,46 +11173,46 @@
         <v>151</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX21" s="3" t="s">
         <v>149</v>
@@ -11233,46 +11236,46 @@
         <v>151</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BF21" s="3" t="s">
         <v>271</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BJ21" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BK21" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL21" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BM21" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BN21" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP21" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ21" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR21" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS21" s="3" t="s">
         <v>149</v>
@@ -11296,46 +11299,46 @@
         <v>151</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB21" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CC21" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CF21" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CG21" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CH21" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CI21" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ21" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK21" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL21" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM21" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN21" s="3" t="s">
         <v>149</v>
@@ -11359,46 +11362,46 @@
         <v>151</v>
       </c>
       <c r="CU21" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CV21" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW21" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CX21" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CY21" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CZ21" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="DA21" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DB21" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="DC21" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DD21" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE21" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF21" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG21" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH21" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI21" s="3" t="s">
         <v>149</v>
@@ -11424,13 +11427,13 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C22" t="s">
         <v>269</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E22" t="s">
         <v>128</v>
@@ -11442,37 +11445,37 @@
         <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>211</v>
@@ -11484,34 +11487,34 @@
         <v>211</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>148</v>
@@ -11526,46 +11529,46 @@
         <v>151</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW22" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX22" s="3" t="s">
         <v>149</v>
@@ -11589,46 +11592,46 @@
         <v>151</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="BF22" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BH22" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BJ22" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="BK22" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL22" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="BM22" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="BN22" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP22" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ22" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR22" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS22" s="3" t="s">
         <v>149</v>
@@ -11652,46 +11655,46 @@
         <v>151</v>
       </c>
       <c r="BZ22" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CB22" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CC22" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CE22" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CF22" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CG22" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CH22" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CI22" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ22" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK22" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL22" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM22" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN22" s="3" t="s">
         <v>149</v>
@@ -11715,46 +11718,46 @@
         <v>151</v>
       </c>
       <c r="CU22" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CV22" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CW22" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CX22" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CY22" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CZ22" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="DA22" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="DB22" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="DC22" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="DD22" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE22" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF22" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG22" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH22" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI22" s="3" t="s">
         <v>149</v>
@@ -11780,13 +11783,13 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C23" t="s">
         <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
         <v>128</v>
@@ -11798,37 +11801,37 @@
         <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>211</v>
@@ -11840,34 +11843,34 @@
         <v>211</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF23" s="3" t="s">
         <v>148</v>
@@ -11882,46 +11885,46 @@
         <v>151</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW23" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX23" s="3" t="s">
         <v>149</v>
@@ -11945,46 +11948,46 @@
         <v>151</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="BF23" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BL23" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="BM23" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="BN23" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP23" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ23" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR23" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS23" s="3" t="s">
         <v>149</v>
@@ -12008,46 +12011,46 @@
         <v>151</v>
       </c>
       <c r="BZ23" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="CB23" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CC23" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="CE23" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="CF23" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="CG23" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="CH23" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="CI23" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ23" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK23" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL23" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM23" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN23" s="3" t="s">
         <v>149</v>
@@ -12071,46 +12074,46 @@
         <v>151</v>
       </c>
       <c r="CU23" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="CV23" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="CW23" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="CX23" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="CY23" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="CZ23" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DA23" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DB23" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DC23" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DD23" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE23" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF23" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG23" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH23" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI23" s="3" t="s">
         <v>149</v>
@@ -12136,13 +12139,13 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C24" t="s">
         <v>269</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
         <v>128</v>
@@ -12160,16 +12163,16 @@
         <v>130</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>270</v>
@@ -12181,10 +12184,10 @@
         <v>272</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>211</v>
@@ -12196,34 +12199,34 @@
         <v>211</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>148</v>
@@ -12238,46 +12241,46 @@
         <v>151</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ24" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AS24" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT24" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU24" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV24" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW24" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX24" s="3" t="s">
         <v>149</v>
@@ -12301,46 +12304,46 @@
         <v>151</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BF24" s="3" t="s">
         <v>271</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BH24" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BI24" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BJ24" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BK24" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL24" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BM24" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BN24" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP24" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ24" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR24" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS24" s="3" t="s">
         <v>149</v>
@@ -12364,46 +12367,46 @@
         <v>151</v>
       </c>
       <c r="BZ24" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB24" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CC24" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CE24" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CF24" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CG24" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CH24" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CI24" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ24" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK24" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL24" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM24" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN24" s="3" t="s">
         <v>149</v>
@@ -12427,46 +12430,46 @@
         <v>151</v>
       </c>
       <c r="CU24" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CV24" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW24" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CX24" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CY24" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CZ24" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="DA24" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DB24" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="DC24" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DD24" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE24" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF24" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG24" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH24" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI24" s="3" t="s">
         <v>149</v>
@@ -12492,7 +12495,7 @@
         <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C25" t="s">
         <v>126</v>
@@ -12510,10 +12513,10 @@
         <v>129</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>129</v>
@@ -12522,22 +12525,22 @@
         <v>129</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>210</v>
@@ -12558,28 +12561,28 @@
         <v>151</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>148</v>
@@ -12594,31 +12597,31 @@
         <v>151</v>
       </c>
       <c r="AJ25" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AN25" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AQ25" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AS25" s="3" t="s">
         <v>227</v>
@@ -12657,31 +12660,31 @@
         <v>151</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BI25" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BJ25" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BK25" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BL25" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BM25" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BN25" s="3" t="s">
         <v>239</v>
@@ -12720,31 +12723,31 @@
         <v>151</v>
       </c>
       <c r="BZ25" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="CB25" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CC25" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CE25" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CF25" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CG25" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CH25" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CI25" s="3" t="s">
         <v>249</v>
@@ -12783,31 +12786,31 @@
         <v>151</v>
       </c>
       <c r="CU25" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CV25" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CW25" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CX25" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CY25" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CZ25" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="DA25" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="DB25" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="DC25" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="DD25" s="3" t="s">
         <v>263</v>
@@ -12848,7 +12851,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
@@ -12866,10 +12869,10 @@
         <v>129</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>129</v>
@@ -12878,22 +12881,22 @@
         <v>129</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>210</v>
@@ -12914,28 +12917,28 @@
         <v>151</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>148</v>
@@ -12950,31 +12953,31 @@
         <v>151</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AN26" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AQ26" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AS26" s="3" t="s">
         <v>227</v>
@@ -13013,31 +13016,31 @@
         <v>151</v>
       </c>
       <c r="BE26" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BF26" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BG26" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BH26" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BI26" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BJ26" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BK26" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BL26" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BM26" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BN26" s="3" t="s">
         <v>239</v>
@@ -13076,31 +13079,31 @@
         <v>151</v>
       </c>
       <c r="BZ26" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CA26" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CB26" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CC26" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CD26" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CE26" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CF26" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CG26" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CH26" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CI26" s="3" t="s">
         <v>249</v>
@@ -13139,31 +13142,31 @@
         <v>151</v>
       </c>
       <c r="CU26" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV26" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CW26" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CX26" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CY26" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CZ26" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DA26" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DB26" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DC26" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DD26" s="3" t="s">
         <v>263</v>
@@ -13204,7 +13207,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
@@ -13222,10 +13225,10 @@
         <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>129</v>
@@ -13234,22 +13237,22 @@
         <v>129</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>210</v>
@@ -13270,28 +13273,28 @@
         <v>151</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF27" s="3" t="s">
         <v>148</v>
@@ -13306,31 +13309,31 @@
         <v>151</v>
       </c>
       <c r="AJ27" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AL27" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AN27" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AQ27" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AS27" s="3" t="s">
         <v>227</v>
@@ -13369,31 +13372,31 @@
         <v>151</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="BF27" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="BG27" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="BH27" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="BI27" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="BJ27" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="BK27" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="BL27" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="BM27" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="BN27" s="3" t="s">
         <v>239</v>
@@ -13432,31 +13435,31 @@
         <v>151</v>
       </c>
       <c r="BZ27" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CA27" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CB27" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CC27" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CE27" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CF27" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CG27" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CH27" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CI27" s="3" t="s">
         <v>249</v>
@@ -13495,31 +13498,31 @@
         <v>151</v>
       </c>
       <c r="CU27" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CV27" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CW27" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CX27" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CY27" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CZ27" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DA27" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DB27" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DC27" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DD27" s="3" t="s">
         <v>263</v>
@@ -13560,7 +13563,7 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C28" t="s">
         <v>126</v>
@@ -13578,10 +13581,10 @@
         <v>129</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>129</v>
@@ -13590,22 +13593,22 @@
         <v>129</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>210</v>
@@ -13626,28 +13629,28 @@
         <v>151</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>148</v>
@@ -13662,31 +13665,31 @@
         <v>151</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AM28" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AO28" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AQ28" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AS28" s="3" t="s">
         <v>227</v>
@@ -13725,31 +13728,31 @@
         <v>151</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="BF28" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="BG28" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="BH28" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="BI28" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="BJ28" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="BK28" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="BL28" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="BM28" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="BN28" s="3" t="s">
         <v>239</v>
@@ -13788,31 +13791,31 @@
         <v>151</v>
       </c>
       <c r="BZ28" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="CA28" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="CB28" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="CC28" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="CD28" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="CE28" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="CF28" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="CG28" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="CH28" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="CI28" s="3" t="s">
         <v>249</v>
@@ -13851,31 +13854,31 @@
         <v>151</v>
       </c>
       <c r="CU28" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="CV28" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="CW28" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="CX28" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="CY28" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="CZ28" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="DA28" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="DB28" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="DC28" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="DD28" s="3" t="s">
         <v>263</v>
@@ -13916,7 +13919,7 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C29" t="s">
         <v>126</v>
@@ -13934,10 +13937,10 @@
         <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>129</v>
@@ -13946,22 +13949,22 @@
         <v>129</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>210</v>
@@ -13982,28 +13985,28 @@
         <v>151</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AF29" s="3" t="s">
         <v>148</v>
@@ -14018,31 +14021,31 @@
         <v>151</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AQ29" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AS29" s="3" t="s">
         <v>227</v>
@@ -14081,31 +14084,31 @@
         <v>151</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="BF29" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="BG29" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="BH29" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="BJ29" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="BK29" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="BL29" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="BM29" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="BN29" s="3" t="s">
         <v>239</v>
@@ -14144,31 +14147,31 @@
         <v>151</v>
       </c>
       <c r="BZ29" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="CA29" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="CB29" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="CC29" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="CD29" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="CE29" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="CF29" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="CG29" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="CH29" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="CI29" s="3" t="s">
         <v>249</v>
@@ -14207,31 +14210,31 @@
         <v>151</v>
       </c>
       <c r="CU29" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="CV29" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="CW29" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="CX29" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="CY29" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="CZ29" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="DA29" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="DB29" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="DC29" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="DD29" s="3" t="s">
         <v>263</v>
@@ -14272,7 +14275,7 @@
         <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C30" t="s">
         <v>269</v>
@@ -14290,10 +14293,10 @@
         <v>129</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>129</v>
@@ -14302,25 +14305,25 @@
         <v>129</v>
       </c>
       <c r="L30" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>974</v>
-      </c>
       <c r="N30" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>211</v>
@@ -14338,28 +14341,28 @@
         <v>151</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AF30" s="3" t="s">
         <v>148</v>
@@ -14374,46 +14377,46 @@
         <v>151</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AQ30" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AS30" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT30" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU30" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV30" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW30" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX30" s="3" t="s">
         <v>149</v>
@@ -14437,46 +14440,46 @@
         <v>151</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="BF30" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="BG30" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BH30" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="BJ30" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="BK30" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="BL30" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="BM30" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="BN30" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO30" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP30" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ30" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR30" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS30" s="3" t="s">
         <v>149</v>
@@ -14500,46 +14503,46 @@
         <v>151</v>
       </c>
       <c r="BZ30" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="CA30" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="CB30" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="CC30" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="CE30" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="CF30" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="CG30" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="CH30" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="CI30" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ30" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK30" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL30" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM30" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN30" s="3" t="s">
         <v>149</v>
@@ -14563,46 +14566,46 @@
         <v>151</v>
       </c>
       <c r="CU30" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="CV30" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="CW30" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="CX30" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="CY30" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="CZ30" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="DA30" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="DB30" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="DC30" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="DD30" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE30" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF30" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG30" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH30" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI30" s="3" t="s">
         <v>149</v>
@@ -14628,7 +14631,7 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C31" t="s">
         <v>269</v>
@@ -14646,10 +14649,10 @@
         <v>129</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>129</v>
@@ -14658,25 +14661,25 @@
         <v>129</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="N31" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>211</v>
@@ -14694,28 +14697,28 @@
         <v>151</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF31" s="3" t="s">
         <v>148</v>
@@ -14730,46 +14733,46 @@
         <v>151</v>
       </c>
       <c r="AJ31" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AL31" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AQ31" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="AS31" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT31" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU31" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV31" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW31" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX31" s="3" t="s">
         <v>149</v>
@@ -14793,46 +14796,46 @@
         <v>151</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="BF31" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="BG31" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="BH31" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="BI31" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="BJ31" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="BK31" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="BL31" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="BM31" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="BN31" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO31" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP31" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ31" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR31" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS31" s="3" t="s">
         <v>149</v>
@@ -14856,46 +14859,46 @@
         <v>151</v>
       </c>
       <c r="BZ31" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="CA31" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="CB31" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="CC31" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="CE31" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="CF31" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="CG31" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="CH31" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="CI31" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ31" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK31" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL31" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM31" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN31" s="3" t="s">
         <v>149</v>
@@ -14919,46 +14922,46 @@
         <v>151</v>
       </c>
       <c r="CU31" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="CV31" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="CW31" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="CX31" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="CY31" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="CZ31" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="DA31" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="DB31" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="DC31" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="DD31" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE31" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF31" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG31" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH31" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI31" s="3" t="s">
         <v>149</v>
@@ -14984,7 +14987,7 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C32" t="s">
         <v>269</v>
@@ -15002,10 +15005,10 @@
         <v>129</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>129</v>
@@ -15014,25 +15017,25 @@
         <v>129</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>211</v>
@@ -15050,28 +15053,28 @@
         <v>151</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AD32" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AF32" s="3" t="s">
         <v>148</v>
@@ -15086,46 +15089,46 @@
         <v>151</v>
       </c>
       <c r="AJ32" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="AL32" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AN32" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="AS32" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT32" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV32" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW32" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX32" s="3" t="s">
         <v>149</v>
@@ -15149,46 +15152,46 @@
         <v>151</v>
       </c>
       <c r="BE32" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="BF32" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="BG32" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="BH32" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="BI32" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="BJ32" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="BK32" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="BL32" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="BM32" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="BN32" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO32" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP32" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ32" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR32" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS32" s="3" t="s">
         <v>149</v>
@@ -15212,46 +15215,46 @@
         <v>151</v>
       </c>
       <c r="BZ32" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="CA32" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="CB32" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="CC32" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="CF32" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="CG32" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="CH32" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="CI32" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ32" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK32" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL32" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM32" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN32" s="3" t="s">
         <v>149</v>
@@ -15275,46 +15278,46 @@
         <v>151</v>
       </c>
       <c r="CU32" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="CV32" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="CW32" s="3" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="CX32" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="CY32" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="CZ32" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="DA32" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="DB32" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="DC32" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="DD32" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE32" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF32" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG32" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH32" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI32" s="3" t="s">
         <v>149</v>
@@ -15340,7 +15343,7 @@
         <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C33" t="s">
         <v>269</v>
@@ -15358,10 +15361,10 @@
         <v>129</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>129</v>
@@ -15370,25 +15373,25 @@
         <v>129</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>211</v>
@@ -15406,28 +15409,28 @@
         <v>151</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AF33" s="3" t="s">
         <v>148</v>
@@ -15442,46 +15445,46 @@
         <v>151</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AO33" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AQ33" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AR33" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="AS33" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT33" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU33" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV33" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW33" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX33" s="3" t="s">
         <v>149</v>
@@ -15505,46 +15508,46 @@
         <v>151</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="BF33" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="BG33" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="BH33" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="BI33" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="BJ33" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="BK33" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="BL33" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="BM33" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="BN33" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO33" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP33" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ33" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR33" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS33" s="3" t="s">
         <v>149</v>
@@ -15568,46 +15571,46 @@
         <v>151</v>
       </c>
       <c r="BZ33" s="3" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="CA33" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="CB33" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="CC33" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="CD33" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="CE33" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="CF33" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="CG33" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="CH33" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="CI33" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ33" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK33" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL33" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM33" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN33" s="3" t="s">
         <v>149</v>
@@ -15631,46 +15634,46 @@
         <v>151</v>
       </c>
       <c r="CU33" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="CV33" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="CW33" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="CX33" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="CY33" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="CZ33" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="DA33" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="DB33" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="DC33" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="DD33" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE33" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF33" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG33" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH33" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI33" s="3" t="s">
         <v>149</v>
@@ -15696,7 +15699,7 @@
         <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C34" t="s">
         <v>269</v>
@@ -15714,10 +15717,10 @@
         <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>129</v>
@@ -15726,25 +15729,25 @@
         <v>129</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>764</v>
-      </c>
       <c r="N34" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>211</v>
@@ -15762,28 +15765,28 @@
         <v>151</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AF34" s="3" t="s">
         <v>148</v>
@@ -15798,46 +15801,46 @@
         <v>151</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="AL34" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AN34" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AQ34" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AS34" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT34" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU34" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AV34" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW34" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AX34" s="3" t="s">
         <v>149</v>
@@ -15861,46 +15864,46 @@
         <v>151</v>
       </c>
       <c r="BE34" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="BF34" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="BG34" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="BH34" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="BI34" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="BJ34" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="BK34" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="BL34" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="BM34" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="BN34" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BO34" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BP34" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BQ34" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BR34" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS34" s="3" t="s">
         <v>149</v>
@@ -15924,46 +15927,46 @@
         <v>151</v>
       </c>
       <c r="BZ34" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="CA34" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="CB34" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="CC34" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="CD34" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="CE34" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="CF34" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="CG34" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="CH34" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="CI34" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CJ34" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK34" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CL34" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM34" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CN34" s="3" t="s">
         <v>149</v>
@@ -15987,46 +15990,46 @@
         <v>151</v>
       </c>
       <c r="CU34" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="CV34" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="CW34" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="CX34" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="CY34" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="CZ34" s="3" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="DA34" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="DB34" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="DC34" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="DD34" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DE34" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="DF34" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DG34" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH34" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI34" s="3" t="s">
         <v>149</v>

--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -416,10 +416,10 @@
     <t>0.07005886361899759</t>
   </si>
   <si>
-    <t>206.441</t>
-  </si>
-  <si>
-    <t>-698.069</t>
+    <t>206.464</t>
+  </si>
+  <si>
+    <t>-697.97</t>
   </si>
   <si>
     <t>-1.2508171328901623</t>
@@ -833,10 +833,10 @@
     <t>0.06982049767478168</t>
   </si>
   <si>
-    <t>22.818</t>
-  </si>
-  <si>
-    <t>-699.591</t>
+    <t>22.845</t>
+  </si>
+  <si>
+    <t>-699.489</t>
   </si>
   <si>
     <t>0.19027904463505274</t>
@@ -1148,10 +1148,10 @@
     <t>0.06826328566738032</t>
   </si>
   <si>
-    <t>140.22320831759697</t>
-  </si>
-  <si>
-    <t>-631.6031421040232</t>
+    <t>140.24620831759697</t>
+  </si>
+  <si>
+    <t>-631.5041421040232</t>
   </si>
   <si>
     <t>-90.11986052827177</t>
@@ -1304,10 +1304,10 @@
     <t>0.0690519661730757</t>
   </si>
   <si>
-    <t>173.09754992847954</t>
-  </si>
-  <si>
-    <t>-664.5439857996336</t>
+    <t>173.12054992847953</t>
+  </si>
+  <si>
+    <t>-664.4449857996336</t>
   </si>
   <si>
     <t>-89.88292140149322</t>
@@ -1661,10 +1661,10 @@
     <t>0.07243013316055126</t>
   </si>
   <si>
-    <t>-43.85131407447644</t>
-  </si>
-  <si>
-    <t>-769.0640793115072</t>
+    <t>-43.82431407447644</t>
+  </si>
+  <si>
+    <t>-768.9620793115071</t>
   </si>
   <si>
     <t>-91.55024882984965</t>
@@ -1814,10 +1814,10 @@
     <t>0.07098031503333774</t>
   </si>
   <si>
-    <t>-10.195802478181784</t>
-  </si>
-  <si>
-    <t>-733.8989381342564</t>
+    <t>-10.168802478181787</t>
+  </si>
+  <si>
+    <t>-733.7969381342564</t>
   </si>
   <si>
     <t>-91.10127545516434</t>
@@ -2168,10 +2168,10 @@
     <t>0.07012186595013008</t>
   </si>
   <si>
-    <t>207.27466130057243</t>
-  </si>
-  <si>
-    <t>-700.1422770413226</t>
+    <t>207.29766130057243</t>
+  </si>
+  <si>
+    <t>-700.0432770413227</t>
   </si>
   <si>
     <t>-71.03733744343728</t>
@@ -2327,10 +2327,10 @@
     <t>0.07193042652028452</t>
   </si>
   <si>
-    <t>144.33150295264775</t>
-  </si>
-  <si>
-    <t>-763.2005356668122</t>
+    <t>144.35450295264775</t>
+  </si>
+  <si>
+    <t>-763.1015356668123</t>
   </si>
   <si>
     <t>-135.34200519876435</t>
@@ -2486,10 +2486,10 @@
     <t>0.07173234893063828</t>
   </si>
   <si>
-    <t>259.95730166328474</t>
-  </si>
-  <si>
-    <t>-739.4292610098595</t>
+    <t>259.98030166328476</t>
+  </si>
+  <si>
+    <t>-739.3302610098596</t>
   </si>
   <si>
     <t>-19.224851721071236</t>
@@ -2645,10 +2645,10 @@
     <t>0.06894015219133763</t>
   </si>
   <si>
-    <t>269.24444287044804</t>
-  </si>
-  <si>
-    <t>-633.7170008127497</t>
+    <t>269.26744287044806</t>
+  </si>
+  <si>
+    <t>-633.6180008127498</t>
   </si>
   <si>
     <t>-7.632315416168646</t>
@@ -2798,10 +2798,10 @@
     <t>0.06832148202910197</t>
   </si>
   <si>
-    <t>141.9722760030966</t>
-  </si>
-  <si>
-    <t>-634.4336991945218</t>
+    <t>141.9952760030966</t>
+  </si>
+  <si>
+    <t>-634.3346991945218</t>
   </si>
   <si>
     <t>-134.88980025659524</t>
@@ -2954,10 +2954,10 @@
     <t>0.06980318033342428</t>
   </si>
   <si>
-    <t>23.737548440981122</t>
-  </si>
-  <si>
-    <t>-699.0553444181352</t>
+    <t>23.76454844098112</t>
+  </si>
+  <si>
+    <t>-698.9533444181352</t>
   </si>
   <si>
     <t>-69.20535467436002</t>
@@ -3110,10 +3110,10 @@
     <t>0.07147198586306203</t>
   </si>
   <si>
-    <t>-25.307612507901442</t>
-  </si>
-  <si>
-    <t>-746.1380353045871</t>
+    <t>-25.280612507901445</t>
+  </si>
+  <si>
+    <t>-746.0360353045871</t>
   </si>
   <si>
     <t>-118.093884031113</t>
@@ -3257,10 +3257,10 @@
     <t>0.07183087842299725</t>
   </si>
   <si>
-    <t>85.78358619356544</t>
-  </si>
-  <si>
-    <t>-764.3616144481065</t>
+    <t>85.81058619356544</t>
+  </si>
+  <si>
+    <t>-764.2596144481065</t>
   </si>
   <si>
     <t>-6.942777623204338</t>
@@ -3404,10 +3404,10 @@
     <t>0.0682484055679046</t>
   </si>
   <si>
-    <t>85.1083366991081</t>
-  </si>
-  <si>
-    <t>-635.3249698623604</t>
+    <t>85.1353366991081</t>
+  </si>
+  <si>
+    <t>-635.2229698623605</t>
   </si>
   <si>
     <t>-8.046552764412846</t>
@@ -3551,10 +3551,10 @@
     <t>0.068596053603498</t>
   </si>
   <si>
-    <t>-39.735127140954006</t>
-  </si>
-  <si>
-    <t>-636.6538148228858</t>
+    <t>-39.70812714095401</t>
+  </si>
+  <si>
+    <t>-636.5518148228857</t>
   </si>
   <si>
     <t>-132.88491507454154</t>

--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -20319,17 +20319,17 @@
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t>10.199</t>
+          <t>61.932</t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>41.167</t>
+          <t>812.28</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t>0.00968759</t>
+          <t>0.009335536</t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">

--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -20319,17 +20319,17 @@
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t>163.826</t>
+          <t>162.233</t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>177.606</t>
+          <t>171.991</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t>0.00963132</t>
+          <t>0.009590215</t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">

--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -2559,12 +2559,12 @@
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>22.835</t>
+          <t>22.865</t>
         </is>
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t>-699.423</t>
+          <t>-699.28</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>22.835</t>
+          <t>22.865</t>
         </is>
       </c>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t>-699.423</t>
+          <t>-699.28</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
@@ -9071,12 +9071,12 @@
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>-43.795554756956385</t>
+          <t>-43.76555475695639</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
         <is>
-          <t>-768.6886154906737</t>
+          <t>-768.5456154906736</t>
         </is>
       </c>
       <c r="R16" s="3" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>-10.181331515712449</t>
+          <t>-10.151331515712451</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
-          <t>-733.668328548254</t>
+          <t>-733.5253285482539</t>
         </is>
       </c>
       <c r="R17" s="3" t="inlineStr">
@@ -10255,12 +10255,12 @@
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>22.835</t>
+          <t>22.865</t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t>-699.423</t>
+          <t>-699.28</t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
@@ -10847,12 +10847,12 @@
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>-43.795554756956385</t>
+          <t>-43.76555475695639</t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>-768.6886154906737</t>
+          <t>-768.5456154906736</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
@@ -11439,12 +11439,12 @@
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>-10.181331515712449</t>
+          <t>-10.151331515712451</t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
-          <t>-733.668328548254</t>
+          <t>-733.5253285482539</t>
         </is>
       </c>
       <c r="R20" s="3" t="inlineStr">
@@ -12031,12 +12031,12 @@
       </c>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>22.835</t>
+          <t>22.865</t>
         </is>
       </c>
       <c r="Q21" s="3" t="inlineStr">
         <is>
-          <t>-699.423</t>
+          <t>-699.28</t>
         </is>
       </c>
       <c r="R21" s="3" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="P22" s="3" t="inlineStr">
         <is>
-          <t>-43.795554756956385</t>
+          <t>-43.76555475695639</t>
         </is>
       </c>
       <c r="Q22" s="3" t="inlineStr">
         <is>
-          <t>-768.6886154906737</t>
+          <t>-768.5456154906736</t>
         </is>
       </c>
       <c r="R22" s="3" t="inlineStr">
@@ -13215,12 +13215,12 @@
       </c>
       <c r="P23" s="3" t="inlineStr">
         <is>
-          <t>-10.181331515712449</t>
+          <t>-10.151331515712451</t>
         </is>
       </c>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t>-733.668328548254</t>
+          <t>-733.5253285482539</t>
         </is>
       </c>
       <c r="R23" s="3" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t>22.835</t>
+          <t>22.865</t>
         </is>
       </c>
       <c r="Q24" s="3" t="inlineStr">
         <is>
-          <t>-699.423</t>
+          <t>-699.28</t>
         </is>
       </c>
       <c r="R24" s="3" t="inlineStr">
@@ -17359,12 +17359,12 @@
       </c>
       <c r="P30" s="3" t="inlineStr">
         <is>
-          <t>23.75381501621084</t>
+          <t>23.783815016210838</t>
         </is>
       </c>
       <c r="Q30" s="3" t="inlineStr">
         <is>
-          <t>-698.8888585747162</t>
+          <t>-698.7458585747162</t>
         </is>
       </c>
       <c r="R30" s="3" t="inlineStr">
@@ -17951,12 +17951,12 @@
       </c>
       <c r="P31" s="3" t="inlineStr">
         <is>
-          <t>-25.28085550118208</t>
+          <t>-25.250855501182084</t>
         </is>
       </c>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t>-745.869442274178</t>
+          <t>-745.726442274178</t>
         </is>
       </c>
       <c r="R31" s="3" t="inlineStr">
@@ -18543,12 +18543,12 @@
       </c>
       <c r="P32" s="3" t="inlineStr">
         <is>
-          <t>85.55928499097821</t>
+          <t>85.58928499097821</t>
         </is>
       </c>
       <c r="Q32" s="3" t="inlineStr">
         <is>
-          <t>-764.2107063623097</t>
+          <t>-764.0677063623097</t>
         </is>
       </c>
       <c r="R32" s="3" t="inlineStr">
@@ -19135,12 +19135,12 @@
       </c>
       <c r="P33" s="3" t="inlineStr">
         <is>
-          <t>85.09128037693063</t>
+          <t>85.12128037693063</t>
         </is>
       </c>
       <c r="Q33" s="3" t="inlineStr">
         <is>
-          <t>-635.3400568092407</t>
+          <t>-635.1970568092406</t>
         </is>
       </c>
       <c r="R33" s="3" t="inlineStr">
@@ -19727,12 +19727,12 @@
       </c>
       <c r="P34" s="3" t="inlineStr">
         <is>
-          <t>-39.50841505022427</t>
+          <t>-39.47841505022427</t>
         </is>
       </c>
       <c r="Q34" s="3" t="inlineStr">
         <is>
-          <t>-636.4878219163089</t>
+          <t>-636.3448219163089</t>
         </is>
       </c>
       <c r="R34" s="3" t="inlineStr">
@@ -20319,17 +20319,17 @@
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>180.255</t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>175.783</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.041688872</t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J-FRAME</t>
+          <t>V-FRAME</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
